--- a/ozone/MAE_stacked_MB.xlsx
+++ b/ozone/MAE_stacked_MB.xlsx
@@ -452,10 +452,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.07774258499609484</v>
+        <v>0.07107759697255688</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5279832969266509</v>
+        <v>0.6196869661694117</v>
       </c>
     </row>
     <row r="3">
@@ -465,10 +465,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.09542507650191506</v>
+        <v>0.07469256291730456</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6972285042783878</v>
+        <v>0.859566932473949</v>
       </c>
     </row>
   </sheetData>
